--- a/Week6/dictionary/ic2021_campuses.new.xlsx
+++ b/Week6/dictionary/ic2021_campuses.new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10819"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027406C-4A63-8F4E-A23A-22442F9973AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C59143-001F-5449-B159-3E6C770FE1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="500" windowWidth="39120" windowHeight="22700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33460" yWindow="560" windowWidth="39120" windowHeight="22700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varlist" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>Highest level of offering</t>
   </si>
   <si>
-    <t>highest_level_offering</t>
-  </si>
-  <si>
     <t>PCUGOFFER</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>Degree of urbanization (Urban-centric locale)</t>
   </si>
   <si>
-    <t>urban_locale</t>
-  </si>
-  <si>
     <t>PCOPENPUBL</t>
   </si>
   <si>
@@ -1265,9 +1259,6 @@
     <t>CIP code of largest program</t>
   </si>
   <si>
-    <t>cip_code_largest_program</t>
-  </si>
-  <si>
     <t>PCCIPLGTH1</t>
   </si>
   <si>
@@ -1517,9 +1508,6 @@
     <t>XPCCHG9PY3</t>
   </si>
   <si>
-    <t>fips_st_code</t>
-  </si>
-  <si>
     <t>publsd_in_st_tuition_2018_19</t>
   </si>
   <si>
@@ -1592,9 +1580,6 @@
     <t>publsd_out_st_tuition_fees_2021_22</t>
   </si>
   <si>
-    <t>state_congressional_dist_id</t>
-  </si>
-  <si>
     <t>in_dist_tuition_2018_19</t>
   </si>
   <si>
@@ -1806,13 +1791,28 @@
   </si>
   <si>
     <t>off_cmps_with_fam_other_exp_2021_22_py</t>
+  </si>
+  <si>
+    <t>fips_state_code</t>
+  </si>
+  <si>
+    <t>highest_level</t>
+  </si>
+  <si>
+    <t>urbanization_degree</t>
+  </si>
+  <si>
+    <t>cip_code</t>
+  </si>
+  <si>
+    <t>congressional_district_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,6 +1825,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1862,11 +1869,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2171,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116:I170"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2396,7 +2404,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2879,7 +2887,7 @@
         <v>98</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2887,7 +2895,7 @@
         <v>18029</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2899,10 +2907,10 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" t="s">
         <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2910,7 +2918,7 @@
         <v>18030</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2922,10 +2930,10 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
         <v>104</v>
-      </c>
-      <c r="H32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2933,7 +2941,7 @@
         <v>18031</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -2945,10 +2953,10 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" t="s">
         <v>107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2956,7 +2964,7 @@
         <v>18032</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -2968,10 +2976,10 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
         <v>110</v>
-      </c>
-      <c r="H34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2979,7 +2987,7 @@
         <v>18033</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -2991,10 +2999,10 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
         <v>113</v>
-      </c>
-      <c r="H35" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3002,7 +3010,7 @@
         <v>18034</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -3014,10 +3022,10 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
         <v>116</v>
-      </c>
-      <c r="H36" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3025,7 +3033,7 @@
         <v>18035</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -3037,10 +3045,10 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H37" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3048,7 +3056,7 @@
         <v>18036</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -3060,10 +3068,10 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3071,7 +3079,7 @@
         <v>18037</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3083,10 +3091,10 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3102,7 @@
         <v>18038</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -3106,10 +3114,10 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3117,7 +3125,7 @@
         <v>18039</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -3129,10 +3137,10 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3140,7 +3148,7 @@
         <v>18040</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -3152,10 +3160,10 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3163,7 +3171,7 @@
         <v>18041</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -3175,10 +3183,10 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3186,7 +3194,7 @@
         <v>18042</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -3198,10 +3206,10 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3209,7 +3217,7 @@
         <v>18043</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -3221,10 +3229,10 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3232,7 +3240,7 @@
         <v>18044</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -3244,10 +3252,10 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3255,7 +3263,7 @@
         <v>18045</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -3267,10 +3275,10 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3278,7 +3286,7 @@
         <v>18046</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -3290,10 +3298,10 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3301,7 +3309,7 @@
         <v>18047</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -3313,10 +3321,10 @@
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3324,7 +3332,7 @@
         <v>18048</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -3336,10 +3344,10 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3347,7 +3355,7 @@
         <v>18049</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -3359,10 +3367,10 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3370,7 +3378,7 @@
         <v>18050</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -3382,10 +3390,10 @@
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3393,7 +3401,7 @@
         <v>18052</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -3405,10 +3413,10 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3416,7 +3424,7 @@
         <v>18053</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -3428,10 +3436,10 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3439,7 +3447,7 @@
         <v>18054</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -3451,10 +3459,10 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,7 +3470,7 @@
         <v>18055</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -3474,10 +3482,10 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3485,7 +3493,7 @@
         <v>18056</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -3497,10 +3505,10 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3508,7 +3516,7 @@
         <v>18057</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -3520,10 +3528,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3531,7 +3539,7 @@
         <v>18058</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -3543,10 +3551,10 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3554,7 +3562,7 @@
         <v>18059</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -3566,10 +3574,10 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3577,7 +3585,7 @@
         <v>18060</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -3589,10 +3597,10 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3600,7 +3608,7 @@
         <v>18061</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -3612,10 +3620,10 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3623,7 +3631,7 @@
         <v>18062</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -3635,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3646,7 +3654,7 @@
         <v>18063</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
         <v>9</v>
@@ -3658,10 +3666,10 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H64" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3669,7 +3677,7 @@
         <v>18064</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -3681,10 +3689,10 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3692,7 +3700,7 @@
         <v>18067</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -3704,10 +3712,10 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3715,7 +3723,7 @@
         <v>18069</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -3727,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3738,7 +3746,7 @@
         <v>18066</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -3750,13 +3758,13 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68" t="s">
         <v>210</v>
-      </c>
-      <c r="G68" t="s">
-        <v>211</v>
-      </c>
-      <c r="H68" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3764,7 +3772,7 @@
         <v>18068</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -3776,10 +3784,10 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H69" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3787,25 +3795,25 @@
         <v>18101</v>
       </c>
       <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>215</v>
+      </c>
+      <c r="G70" t="s">
         <v>216</v>
       </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" t="s">
-        <v>218</v>
-      </c>
       <c r="H70" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3813,25 +3821,25 @@
         <v>18102</v>
       </c>
       <c r="B71" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" t="s">
         <v>219</v>
       </c>
-      <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" t="s">
-        <v>221</v>
-      </c>
       <c r="H71" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3839,25 +3847,25 @@
         <v>18103</v>
       </c>
       <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" t="s">
         <v>222</v>
       </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>223</v>
-      </c>
-      <c r="G72" t="s">
-        <v>224</v>
-      </c>
       <c r="H72" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3865,25 +3873,25 @@
         <v>18104</v>
       </c>
       <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" t="s">
         <v>225</v>
       </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" t="s">
-        <v>227</v>
-      </c>
       <c r="H73" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3891,25 +3899,25 @@
         <v>18105</v>
       </c>
       <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" t="s">
         <v>228</v>
       </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>229</v>
-      </c>
-      <c r="G74" t="s">
-        <v>230</v>
-      </c>
       <c r="H74" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3917,25 +3925,25 @@
         <v>18106</v>
       </c>
       <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>230</v>
+      </c>
+      <c r="G75" t="s">
         <v>231</v>
       </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>232</v>
-      </c>
-      <c r="G75" t="s">
-        <v>233</v>
-      </c>
       <c r="H75" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3943,25 +3951,25 @@
         <v>18107</v>
       </c>
       <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" t="s">
         <v>234</v>
       </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>235</v>
-      </c>
-      <c r="G76" t="s">
-        <v>236</v>
-      </c>
       <c r="H76" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3969,25 +3977,25 @@
         <v>18108</v>
       </c>
       <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>236</v>
+      </c>
+      <c r="G77" t="s">
         <v>237</v>
       </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>238</v>
-      </c>
-      <c r="G77" t="s">
-        <v>239</v>
-      </c>
       <c r="H77" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3995,25 +4003,25 @@
         <v>18109</v>
       </c>
       <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" t="s">
         <v>240</v>
       </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>241</v>
-      </c>
-      <c r="G78" t="s">
-        <v>242</v>
-      </c>
       <c r="H78" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4021,25 +4029,25 @@
         <v>18110</v>
       </c>
       <c r="B79" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79" t="s">
         <v>243</v>
       </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>244</v>
-      </c>
-      <c r="G79" t="s">
-        <v>245</v>
-      </c>
       <c r="H79" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4047,25 +4055,25 @@
         <v>18111</v>
       </c>
       <c r="B80" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G80" t="s">
         <v>246</v>
       </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G80" t="s">
-        <v>248</v>
-      </c>
       <c r="H80" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4073,25 +4081,25 @@
         <v>18112</v>
       </c>
       <c r="B81" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" t="s">
         <v>249</v>
       </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>250</v>
-      </c>
-      <c r="G81" t="s">
-        <v>251</v>
-      </c>
       <c r="H81" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4099,7 +4107,7 @@
         <v>18113</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -4111,10 +4119,10 @@
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4122,7 +4130,7 @@
         <v>18114</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -4134,10 +4142,10 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4145,25 +4153,25 @@
         <v>18115</v>
       </c>
       <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84" t="s">
         <v>256</v>
       </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>257</v>
-      </c>
-      <c r="G84" t="s">
-        <v>258</v>
-      </c>
       <c r="H84" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4171,25 +4179,25 @@
         <v>18116</v>
       </c>
       <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" t="s">
         <v>259</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>260</v>
-      </c>
-      <c r="G85" t="s">
-        <v>261</v>
-      </c>
       <c r="H85" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4197,25 +4205,25 @@
         <v>18117</v>
       </c>
       <c r="B86" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+      <c r="G86" t="s">
         <v>262</v>
       </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>263</v>
-      </c>
-      <c r="G86" t="s">
-        <v>264</v>
-      </c>
       <c r="H86" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -4223,25 +4231,25 @@
         <v>18118</v>
       </c>
       <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>266</v>
-      </c>
-      <c r="G87" t="s">
-        <v>267</v>
-      </c>
       <c r="H87" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4249,25 +4257,25 @@
         <v>18119</v>
       </c>
       <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" t="s">
         <v>268</v>
       </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>269</v>
-      </c>
-      <c r="G88" t="s">
-        <v>270</v>
-      </c>
       <c r="H88" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4275,25 +4283,25 @@
         <v>18120</v>
       </c>
       <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>270</v>
+      </c>
+      <c r="G89" t="s">
         <v>271</v>
       </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>272</v>
-      </c>
-      <c r="G89" t="s">
-        <v>273</v>
-      </c>
       <c r="H89" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4301,25 +4309,25 @@
         <v>18121</v>
       </c>
       <c r="B90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>273</v>
+      </c>
+      <c r="G90" t="s">
         <v>274</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>275</v>
-      </c>
-      <c r="G90" t="s">
-        <v>276</v>
-      </c>
       <c r="H90" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4327,25 +4335,25 @@
         <v>18122</v>
       </c>
       <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+      <c r="G91" t="s">
         <v>277</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>278</v>
-      </c>
-      <c r="G91" t="s">
-        <v>279</v>
-      </c>
       <c r="H91" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4353,25 +4361,25 @@
         <v>18123</v>
       </c>
       <c r="B92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" t="s">
         <v>280</v>
       </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>281</v>
-      </c>
-      <c r="G92" t="s">
-        <v>282</v>
-      </c>
       <c r="H92" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4379,25 +4387,25 @@
         <v>18124</v>
       </c>
       <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>282</v>
+      </c>
+      <c r="G93" t="s">
         <v>283</v>
       </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>284</v>
-      </c>
-      <c r="G93" t="s">
-        <v>285</v>
-      </c>
       <c r="H93" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4405,25 +4413,25 @@
         <v>18125</v>
       </c>
       <c r="B94" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>285</v>
+      </c>
+      <c r="G94" t="s">
         <v>286</v>
       </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>287</v>
-      </c>
-      <c r="G94" t="s">
-        <v>288</v>
-      </c>
       <c r="H94" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -4431,25 +4439,25 @@
         <v>18126</v>
       </c>
       <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>288</v>
+      </c>
+      <c r="G95" t="s">
         <v>289</v>
       </c>
-      <c r="C95" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" t="s">
-        <v>290</v>
-      </c>
-      <c r="G95" t="s">
-        <v>291</v>
-      </c>
       <c r="H95" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4457,7 +4465,7 @@
         <v>18127</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -4469,10 +4477,10 @@
         <v>10</v>
       </c>
       <c r="G96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H96" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4480,7 +4488,7 @@
         <v>18128</v>
       </c>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -4492,10 +4500,10 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H97" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4503,25 +4511,25 @@
         <v>18129</v>
       </c>
       <c r="B98" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>295</v>
+      </c>
+      <c r="G98" t="s">
         <v>296</v>
       </c>
-      <c r="C98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>297</v>
-      </c>
-      <c r="G98" t="s">
-        <v>298</v>
-      </c>
       <c r="H98" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4529,25 +4537,25 @@
         <v>18130</v>
       </c>
       <c r="B99" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>298</v>
+      </c>
+      <c r="G99" t="s">
         <v>299</v>
       </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>300</v>
-      </c>
-      <c r="G99" t="s">
-        <v>301</v>
-      </c>
       <c r="H99" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -4555,25 +4563,25 @@
         <v>18131</v>
       </c>
       <c r="B100" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" t="s">
         <v>302</v>
       </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>303</v>
-      </c>
-      <c r="G100" t="s">
-        <v>304</v>
-      </c>
       <c r="H100" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4581,25 +4589,25 @@
         <v>18132</v>
       </c>
       <c r="B101" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>304</v>
+      </c>
+      <c r="G101" t="s">
         <v>305</v>
       </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>306</v>
-      </c>
-      <c r="G101" t="s">
-        <v>307</v>
-      </c>
       <c r="H101" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -4607,25 +4615,25 @@
         <v>18133</v>
       </c>
       <c r="B102" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>307</v>
+      </c>
+      <c r="G102" t="s">
         <v>308</v>
       </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>309</v>
-      </c>
-      <c r="G102" t="s">
-        <v>310</v>
-      </c>
       <c r="H102" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -4633,25 +4641,25 @@
         <v>18134</v>
       </c>
       <c r="B103" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>310</v>
+      </c>
+      <c r="G103" t="s">
         <v>311</v>
       </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>312</v>
-      </c>
-      <c r="G103" t="s">
-        <v>313</v>
-      </c>
       <c r="H103" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4659,25 +4667,25 @@
         <v>18135</v>
       </c>
       <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>313</v>
+      </c>
+      <c r="G104" t="s">
         <v>314</v>
       </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" t="s">
-        <v>315</v>
-      </c>
-      <c r="G104" t="s">
-        <v>316</v>
-      </c>
       <c r="H104" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4685,25 +4693,25 @@
         <v>18136</v>
       </c>
       <c r="B105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" t="s">
         <v>317</v>
       </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>318</v>
-      </c>
-      <c r="G105" t="s">
-        <v>319</v>
-      </c>
       <c r="H105" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4711,25 +4719,25 @@
         <v>18137</v>
       </c>
       <c r="B106" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>319</v>
+      </c>
+      <c r="G106" t="s">
         <v>320</v>
       </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>321</v>
-      </c>
-      <c r="G106" t="s">
-        <v>322</v>
-      </c>
       <c r="H106" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -4737,25 +4745,25 @@
         <v>18138</v>
       </c>
       <c r="B107" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>322</v>
+      </c>
+      <c r="G107" t="s">
         <v>323</v>
       </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>324</v>
-      </c>
-      <c r="G107" t="s">
-        <v>325</v>
-      </c>
       <c r="H107" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4763,25 +4771,25 @@
         <v>18139</v>
       </c>
       <c r="B108" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>325</v>
+      </c>
+      <c r="G108" t="s">
         <v>326</v>
       </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>327</v>
-      </c>
-      <c r="G108" t="s">
-        <v>328</v>
-      </c>
       <c r="H108" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4789,25 +4797,25 @@
         <v>18140</v>
       </c>
       <c r="B109" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>328</v>
+      </c>
+      <c r="G109" t="s">
         <v>329</v>
       </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>330</v>
-      </c>
-      <c r="G109" t="s">
-        <v>331</v>
-      </c>
       <c r="H109" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4815,7 +4823,7 @@
         <v>18141</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -4827,10 +4835,10 @@
         <v>10</v>
       </c>
       <c r="G110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H110" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4838,7 +4846,7 @@
         <v>18142</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
@@ -4850,10 +4858,10 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H111" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4861,25 +4869,25 @@
         <v>18143</v>
       </c>
       <c r="B112" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
+        <v>335</v>
+      </c>
+      <c r="G112" t="s">
         <v>336</v>
       </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>337</v>
-      </c>
-      <c r="G112" t="s">
-        <v>338</v>
-      </c>
       <c r="H112" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4887,25 +4895,25 @@
         <v>18144</v>
       </c>
       <c r="B113" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" t="s">
         <v>339</v>
       </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
-        <v>340</v>
-      </c>
-      <c r="G113" t="s">
-        <v>341</v>
-      </c>
       <c r="H113" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4913,25 +4921,25 @@
         <v>18145</v>
       </c>
       <c r="B114" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>341</v>
+      </c>
+      <c r="G114" t="s">
         <v>342</v>
       </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>343</v>
-      </c>
-      <c r="G114" t="s">
-        <v>344</v>
-      </c>
       <c r="H114" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4939,25 +4947,25 @@
         <v>18146</v>
       </c>
       <c r="B115" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>344</v>
+      </c>
+      <c r="G115" t="s">
         <v>345</v>
       </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" t="s">
-        <v>346</v>
-      </c>
-      <c r="G115" t="s">
-        <v>347</v>
-      </c>
       <c r="H115" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4965,25 +4973,25 @@
         <v>18147</v>
       </c>
       <c r="B116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" t="s">
         <v>348</v>
       </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>349</v>
-      </c>
-      <c r="G116" t="s">
-        <v>350</v>
-      </c>
       <c r="H116" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4991,25 +4999,25 @@
         <v>18148</v>
       </c>
       <c r="B117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>350</v>
+      </c>
+      <c r="G117" t="s">
         <v>351</v>
       </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>352</v>
-      </c>
-      <c r="G117" t="s">
-        <v>353</v>
-      </c>
       <c r="H117" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5017,25 +5025,25 @@
         <v>18149</v>
       </c>
       <c r="B118" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>353</v>
+      </c>
+      <c r="G118" t="s">
         <v>354</v>
       </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>355</v>
-      </c>
-      <c r="G118" t="s">
-        <v>356</v>
-      </c>
       <c r="H118" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5043,25 +5051,25 @@
         <v>18150</v>
       </c>
       <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>356</v>
+      </c>
+      <c r="G119" t="s">
         <v>357</v>
       </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>358</v>
-      </c>
-      <c r="G119" t="s">
-        <v>359</v>
-      </c>
       <c r="H119" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5069,25 +5077,25 @@
         <v>18151</v>
       </c>
       <c r="B120" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>359</v>
+      </c>
+      <c r="G120" t="s">
         <v>360</v>
       </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>361</v>
-      </c>
-      <c r="G120" t="s">
-        <v>362</v>
-      </c>
       <c r="H120" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5095,25 +5103,25 @@
         <v>18152</v>
       </c>
       <c r="B121" t="s">
+        <v>361</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>362</v>
+      </c>
+      <c r="G121" t="s">
         <v>363</v>
       </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>364</v>
-      </c>
-      <c r="G121" t="s">
-        <v>365</v>
-      </c>
       <c r="H121" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5121,25 +5129,25 @@
         <v>18153</v>
       </c>
       <c r="B122" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>365</v>
+      </c>
+      <c r="G122" t="s">
         <v>366</v>
       </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>367</v>
-      </c>
-      <c r="G122" t="s">
-        <v>368</v>
-      </c>
       <c r="H122" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5147,25 +5155,25 @@
         <v>18154</v>
       </c>
       <c r="B123" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>368</v>
+      </c>
+      <c r="G123" t="s">
         <v>369</v>
       </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>370</v>
-      </c>
-      <c r="G123" t="s">
-        <v>371</v>
-      </c>
       <c r="H123" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5173,25 +5181,25 @@
         <v>18155</v>
       </c>
       <c r="B124" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>371</v>
+      </c>
+      <c r="G124" t="s">
         <v>372</v>
       </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>373</v>
-      </c>
-      <c r="G124" t="s">
-        <v>374</v>
-      </c>
       <c r="H124" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5199,25 +5207,25 @@
         <v>18156</v>
       </c>
       <c r="B125" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>374</v>
+      </c>
+      <c r="G125" t="s">
         <v>375</v>
       </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>376</v>
-      </c>
-      <c r="G125" t="s">
-        <v>377</v>
-      </c>
       <c r="H125" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5225,25 +5233,25 @@
         <v>18157</v>
       </c>
       <c r="B126" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>377</v>
+      </c>
+      <c r="G126" t="s">
         <v>378</v>
       </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>379</v>
-      </c>
-      <c r="G126" t="s">
-        <v>380</v>
-      </c>
       <c r="H126" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5251,25 +5259,25 @@
         <v>18158</v>
       </c>
       <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>380</v>
+      </c>
+      <c r="G127" t="s">
         <v>381</v>
       </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>382</v>
-      </c>
-      <c r="G127" t="s">
-        <v>383</v>
-      </c>
       <c r="H127" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5277,25 +5285,25 @@
         <v>18159</v>
       </c>
       <c r="B128" t="s">
+        <v>382</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>383</v>
+      </c>
+      <c r="G128" t="s">
         <v>384</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>385</v>
-      </c>
-      <c r="G128" t="s">
-        <v>386</v>
-      </c>
       <c r="H128" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -5303,25 +5311,25 @@
         <v>18160</v>
       </c>
       <c r="B129" t="s">
+        <v>385</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>386</v>
+      </c>
+      <c r="G129" t="s">
         <v>387</v>
       </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>388</v>
-      </c>
-      <c r="G129" t="s">
-        <v>389</v>
-      </c>
       <c r="H129" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -5329,25 +5337,25 @@
         <v>18161</v>
       </c>
       <c r="B130" t="s">
+        <v>388</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>389</v>
+      </c>
+      <c r="G130" t="s">
         <v>390</v>
       </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>391</v>
-      </c>
-      <c r="G130" t="s">
-        <v>392</v>
-      </c>
       <c r="H130" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -5355,25 +5363,25 @@
         <v>18162</v>
       </c>
       <c r="B131" t="s">
+        <v>391</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>392</v>
+      </c>
+      <c r="G131" t="s">
         <v>393</v>
       </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" t="s">
-        <v>394</v>
-      </c>
-      <c r="G131" t="s">
-        <v>395</v>
-      </c>
       <c r="H131" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -5381,25 +5389,25 @@
         <v>18163</v>
       </c>
       <c r="B132" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>395</v>
+      </c>
+      <c r="G132" t="s">
         <v>396</v>
       </c>
-      <c r="C132" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>397</v>
-      </c>
-      <c r="G132" t="s">
-        <v>398</v>
-      </c>
       <c r="H132" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -5407,25 +5415,25 @@
         <v>18164</v>
       </c>
       <c r="B133" t="s">
+        <v>397</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
+        <v>398</v>
+      </c>
+      <c r="G133" t="s">
         <v>399</v>
       </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
-        <v>400</v>
-      </c>
-      <c r="G133" t="s">
-        <v>401</v>
-      </c>
       <c r="H133" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -5433,25 +5441,25 @@
         <v>18165</v>
       </c>
       <c r="B134" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>401</v>
+      </c>
+      <c r="G134" t="s">
         <v>402</v>
       </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>403</v>
-      </c>
-      <c r="G134" t="s">
-        <v>404</v>
-      </c>
       <c r="H134" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -5459,25 +5467,25 @@
         <v>18166</v>
       </c>
       <c r="B135" t="s">
+        <v>403</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>404</v>
+      </c>
+      <c r="G135" t="s">
         <v>405</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>406</v>
-      </c>
-      <c r="G135" t="s">
-        <v>407</v>
-      </c>
       <c r="H135" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -5485,10 +5493,10 @@
         <v>18201</v>
       </c>
       <c r="B136" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>7</v>
@@ -5497,10 +5505,10 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H136" t="s">
-        <v>410</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -5508,7 +5516,7 @@
         <v>18202</v>
       </c>
       <c r="B137" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
         <v>9</v>
@@ -5520,13 +5528,13 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G137" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H137" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5534,7 +5542,7 @@
         <v>18203</v>
       </c>
       <c r="B138" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
@@ -5546,10 +5554,10 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H138" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -5557,7 +5565,7 @@
         <v>18204</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C139" t="s">
         <v>9</v>
@@ -5569,13 +5577,13 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G139" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H139" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5583,7 +5591,7 @@
         <v>18205</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C140" t="s">
         <v>9</v>
@@ -5595,13 +5603,13 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G140" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H140" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -5609,7 +5617,7 @@
         <v>18206</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
@@ -5621,13 +5629,13 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H141" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,7 +5643,7 @@
         <v>18207</v>
       </c>
       <c r="B142" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C142" t="s">
         <v>9</v>
@@ -5647,13 +5655,13 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G142" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H142" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -5661,7 +5669,7 @@
         <v>18208</v>
       </c>
       <c r="B143" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
         <v>9</v>
@@ -5673,13 +5681,13 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G143" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H143" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -5687,7 +5695,7 @@
         <v>18209</v>
       </c>
       <c r="B144" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
@@ -5699,13 +5707,13 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G144" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H144" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -5713,7 +5721,7 @@
         <v>18210</v>
       </c>
       <c r="B145" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
@@ -5725,13 +5733,13 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G145" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5739,7 +5747,7 @@
         <v>18211</v>
       </c>
       <c r="B146" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C146" t="s">
         <v>9</v>
@@ -5751,13 +5759,13 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G146" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H146" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5765,7 +5773,7 @@
         <v>18212</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
@@ -5777,13 +5785,13 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G147" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H147" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5791,7 +5799,7 @@
         <v>18213</v>
       </c>
       <c r="B148" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C148" t="s">
         <v>9</v>
@@ -5803,13 +5811,13 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G148" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H148" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5817,7 +5825,7 @@
         <v>18214</v>
       </c>
       <c r="B149" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -5829,13 +5837,13 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G149" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H149" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5843,7 +5851,7 @@
         <v>18215</v>
       </c>
       <c r="B150" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
@@ -5855,13 +5863,13 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G150" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H150" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5869,7 +5877,7 @@
         <v>18216</v>
       </c>
       <c r="B151" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C151" t="s">
         <v>9</v>
@@ -5881,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G151" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5895,7 +5903,7 @@
         <v>18217</v>
       </c>
       <c r="B152" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
@@ -5907,13 +5915,13 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G152" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H152" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5921,7 +5929,7 @@
         <v>18218</v>
       </c>
       <c r="B153" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C153" t="s">
         <v>9</v>
@@ -5933,13 +5941,13 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G153" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H153" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5947,7 +5955,7 @@
         <v>18219</v>
       </c>
       <c r="B154" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -5959,13 +5967,13 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G154" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H154" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5973,7 +5981,7 @@
         <v>18220</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C155" t="s">
         <v>9</v>
@@ -5985,13 +5993,13 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G155" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H155" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5999,7 +6007,7 @@
         <v>18221</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C156" t="s">
         <v>9</v>
@@ -6011,13 +6019,13 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G156" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H156" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6025,7 +6033,7 @@
         <v>18222</v>
       </c>
       <c r="B157" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
@@ -6037,13 +6045,13 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G157" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H157" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -6051,7 +6059,7 @@
         <v>18223</v>
       </c>
       <c r="B158" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C158" t="s">
         <v>9</v>
@@ -6063,13 +6071,13 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G158" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H158" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6077,7 +6085,7 @@
         <v>18224</v>
       </c>
       <c r="B159" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C159" t="s">
         <v>9</v>
@@ -6089,13 +6097,13 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G159" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6103,7 +6111,7 @@
         <v>18225</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C160" t="s">
         <v>9</v>
@@ -6115,13 +6123,13 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G160" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H160" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -6129,7 +6137,7 @@
         <v>18226</v>
       </c>
       <c r="B161" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C161" t="s">
         <v>9</v>
@@ -6141,13 +6149,13 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G161" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H161" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -6155,7 +6163,7 @@
         <v>18227</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
@@ -6167,13 +6175,13 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G162" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -6181,7 +6189,7 @@
         <v>18228</v>
       </c>
       <c r="B163" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s">
         <v>9</v>
@@ -6193,13 +6201,13 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G163" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H163" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -6207,7 +6215,7 @@
         <v>18229</v>
       </c>
       <c r="B164" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
@@ -6219,13 +6227,13 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G164" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H164" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -6233,7 +6241,7 @@
         <v>18230</v>
       </c>
       <c r="B165" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -6245,13 +6253,13 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G165" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H165" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -6259,7 +6267,7 @@
         <v>18231</v>
       </c>
       <c r="B166" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C166" t="s">
         <v>9</v>
@@ -6271,13 +6279,13 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G166" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H166" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -6285,7 +6293,7 @@
         <v>18232</v>
       </c>
       <c r="B167" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
@@ -6297,13 +6305,13 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H167" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -6311,7 +6319,7 @@
         <v>18233</v>
       </c>
       <c r="B168" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -6323,13 +6331,13 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G168" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H168" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -6337,7 +6345,7 @@
         <v>18234</v>
       </c>
       <c r="B169" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -6349,13 +6357,13 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H169" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -6363,7 +6371,7 @@
         <v>18235</v>
       </c>
       <c r="B170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C170" t="s">
         <v>9</v>
@@ -6375,13 +6383,13 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H170" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
